--- a/controllers/CL_TEST_8_action 5/data/Curriculum Yes new model_1_0/Curriculum Yes new model_1_0_Test_heterogeineous_pipe_1/Curriculum Yes new model_1_0_Test_heterogeineous_pipe_1_Test_Result.xlsx
+++ b/controllers/CL_TEST_8_action 5/data/Curriculum Yes new model_1_0/Curriculum Yes new model_1_0_Test_heterogeineous_pipe_1/Curriculum Yes new model_1_0_Test_heterogeineous_pipe_1_Test_Result.xlsx
@@ -445,13 +445,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="B2" t="n">
-        <v>167</v>
+        <v>396</v>
       </c>
       <c r="C2" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -476,13 +476,13 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.7016806722689075</v>
+        <v>0.99</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2815126050420168</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01680672268907563</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/controllers/CL_TEST_8_action 5/data/Curriculum Yes new model_1_0/Curriculum Yes new model_1_0_Test_heterogeineous_pipe_1/Curriculum Yes new model_1_0_Test_heterogeineous_pipe_1_Test_Result.xlsx
+++ b/controllers/CL_TEST_8_action 5/data/Curriculum Yes new model_1_0/Curriculum Yes new model_1_0_Test_heterogeineous_pipe_1/Curriculum Yes new model_1_0_Test_heterogeineous_pipe_1_Test_Result.xlsx
@@ -445,16 +445,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>396</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/controllers/CL_TEST_8_action 5/data/Curriculum Yes new model_1_0/Curriculum Yes new model_1_0_Test_heterogeineous_pipe_1/Curriculum Yes new model_1_0_Test_heterogeineous_pipe_1_Test_Result.xlsx
+++ b/controllers/CL_TEST_8_action 5/data/Curriculum Yes new model_1_0/Curriculum Yes new model_1_0_Test_heterogeineous_pipe_1/Curriculum Yes new model_1_0_Test_heterogeineous_pipe_1_Test_Result.xlsx
@@ -448,13 +448,13 @@
         <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0.975</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
     </row>
   </sheetData>
